--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件撤诉件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理权属、侵权纠纷及其他民事一审案件收结案情况/人民法院审理权属、侵权纠纷及其他民事一审案件撤诉件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,430 +483,238 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7491</v>
+      </c>
+      <c r="C2" t="n">
+        <v>103733</v>
+      </c>
+      <c r="D2" t="n">
+        <v>110635</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32356</v>
+      </c>
+      <c r="F2" t="n">
+        <v>95793</v>
+      </c>
       <c r="G2" t="n">
-        <v>127124</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>269040</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11540</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10567</v>
+      </c>
+      <c r="J2" t="n">
+        <v>658</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7778</v>
+      </c>
+      <c r="C3" t="n">
+        <v>125799</v>
+      </c>
+      <c r="D3" t="n">
+        <v>133496</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40053</v>
+      </c>
+      <c r="F3" t="n">
+        <v>92121</v>
+      </c>
       <c r="G3" t="n">
-        <v>137630</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>307516</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10745</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18063</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5260</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8977</v>
+      </c>
+      <c r="C4" t="n">
+        <v>136266</v>
+      </c>
+      <c r="D4" t="n">
+        <v>144248</v>
+      </c>
+      <c r="E4" t="n">
+        <v>59135</v>
+      </c>
+      <c r="F4" t="n">
+        <v>82597</v>
+      </c>
       <c r="G4" t="n">
-        <v>149926</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>344043</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13745</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28577</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6764</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8437</v>
+      </c>
+      <c r="C5" t="n">
+        <v>125535</v>
+      </c>
+      <c r="D5" t="n">
+        <v>132448</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50286</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75900</v>
+      </c>
       <c r="G5" t="n">
-        <v>164122</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>330857</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27893</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5785</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8973</v>
+      </c>
+      <c r="C6" t="n">
+        <v>112996</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120133</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52257</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75423</v>
+      </c>
       <c r="G6" t="n">
-        <v>171141</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>319534</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24007</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32279</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6462</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2980</v>
+        <v>11664</v>
       </c>
       <c r="C7" t="n">
-        <v>71854</v>
+        <v>118868</v>
       </c>
       <c r="D7" t="n">
-        <v>74362</v>
+        <v>127006</v>
       </c>
       <c r="E7" t="n">
-        <v>71771</v>
+        <v>64773</v>
       </c>
       <c r="F7" t="n">
-        <v>22099</v>
+        <v>90828</v>
       </c>
       <c r="G7" t="n">
-        <v>183516</v>
+        <v>351731</v>
       </c>
       <c r="H7" t="n">
-        <v>5987</v>
+        <v>18889</v>
       </c>
       <c r="I7" t="n">
-        <v>6236</v>
+        <v>36971</v>
       </c>
       <c r="J7" t="n">
-        <v>81</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3955</v>
+        <v>14232</v>
       </c>
       <c r="C8" t="n">
-        <v>81383</v>
+        <v>140317</v>
       </c>
       <c r="D8" t="n">
-        <v>85576</v>
+        <v>151063</v>
       </c>
       <c r="E8" t="n">
-        <v>21201</v>
+        <v>81506</v>
       </c>
       <c r="F8" t="n">
-        <v>87512</v>
+        <v>99843</v>
       </c>
       <c r="G8" t="n">
-        <v>214197</v>
+        <v>413649</v>
       </c>
       <c r="H8" t="n">
-        <v>7544</v>
+        <v>18858</v>
       </c>
       <c r="I8" t="n">
-        <v>7633</v>
+        <v>37559</v>
       </c>
       <c r="J8" t="n">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7305</v>
-      </c>
-      <c r="C9" t="n">
-        <v>90966</v>
-      </c>
-      <c r="D9" t="n">
-        <v>97579</v>
-      </c>
-      <c r="E9" t="n">
-        <v>27153</v>
-      </c>
-      <c r="F9" t="n">
-        <v>91135</v>
-      </c>
-      <c r="G9" t="n">
-        <v>244007</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10564</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9331</v>
-      </c>
-      <c r="J9" t="n">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7491</v>
-      </c>
-      <c r="C10" t="n">
-        <v>103733</v>
-      </c>
-      <c r="D10" t="n">
-        <v>110635</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32356</v>
-      </c>
-      <c r="F10" t="n">
-        <v>95793</v>
-      </c>
-      <c r="G10" t="n">
-        <v>269040</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11540</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10567</v>
-      </c>
-      <c r="J10" t="n">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7778</v>
-      </c>
-      <c r="C11" t="n">
-        <v>125799</v>
-      </c>
-      <c r="D11" t="n">
-        <v>133496</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40053</v>
-      </c>
-      <c r="F11" t="n">
-        <v>92121</v>
-      </c>
-      <c r="G11" t="n">
-        <v>307516</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10745</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18063</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5260</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8977</v>
-      </c>
-      <c r="C12" t="n">
-        <v>136266</v>
-      </c>
-      <c r="D12" t="n">
-        <v>144248</v>
-      </c>
-      <c r="E12" t="n">
-        <v>59135</v>
-      </c>
-      <c r="F12" t="n">
-        <v>82597</v>
-      </c>
-      <c r="G12" t="n">
-        <v>344043</v>
-      </c>
-      <c r="H12" t="n">
-        <v>13745</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28577</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6764</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8437</v>
-      </c>
-      <c r="C13" t="n">
-        <v>125535</v>
-      </c>
-      <c r="D13" t="n">
-        <v>132448</v>
-      </c>
-      <c r="E13" t="n">
-        <v>50286</v>
-      </c>
-      <c r="F13" t="n">
-        <v>75900</v>
-      </c>
-      <c r="G13" t="n">
-        <v>330857</v>
-      </c>
-      <c r="H13" t="n">
-        <v>27893</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30108</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5785</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8973</v>
-      </c>
-      <c r="C14" t="n">
-        <v>112996</v>
-      </c>
-      <c r="D14" t="n">
-        <v>120133</v>
-      </c>
-      <c r="E14" t="n">
-        <v>52257</v>
-      </c>
-      <c r="F14" t="n">
-        <v>75423</v>
-      </c>
-      <c r="G14" t="n">
-        <v>319534</v>
-      </c>
-      <c r="H14" t="n">
-        <v>24007</v>
-      </c>
-      <c r="I14" t="n">
-        <v>32279</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6462</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11664</v>
-      </c>
-      <c r="C15" t="n">
-        <v>118868</v>
-      </c>
-      <c r="D15" t="n">
-        <v>127006</v>
-      </c>
-      <c r="E15" t="n">
-        <v>64773</v>
-      </c>
-      <c r="F15" t="n">
-        <v>90828</v>
-      </c>
-      <c r="G15" t="n">
-        <v>351731</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18889</v>
-      </c>
-      <c r="I15" t="n">
-        <v>36971</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14232</v>
-      </c>
-      <c r="C16" t="n">
-        <v>140317</v>
-      </c>
-      <c r="D16" t="n">
-        <v>151063</v>
-      </c>
-      <c r="E16" t="n">
-        <v>81506</v>
-      </c>
-      <c r="F16" t="n">
-        <v>99843</v>
-      </c>
-      <c r="G16" t="n">
-        <v>413649</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18858</v>
-      </c>
-      <c r="I16" t="n">
-        <v>37559</v>
-      </c>
-      <c r="J16" t="n">
         <v>10588</v>
       </c>
     </row>
